--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2868.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2868.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.200682204153982</v>
+        <v>0.7086900472640991</v>
       </c>
       <c r="B1">
-        <v>2.049516973306319</v>
+        <v>2.113625288009644</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.244817018508911</v>
       </c>
       <c r="D1">
-        <v>2.072759049313139</v>
+        <v>3.839879989624023</v>
       </c>
       <c r="E1">
-        <v>1.20718101757274</v>
+        <v>1.240338802337646</v>
       </c>
     </row>
   </sheetData>
